--- a/ESPN sports website/IPL/Delhi Capitals/Sarfaraz Khan.xlsx
+++ b/ESPN sports website/IPL/Delhi Capitals/Sarfaraz Khan.xlsx
@@ -445,31 +445,31 @@
         <v>Sarfaraz Khan</v>
       </c>
       <c r="C2" t="str">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D2" t="str">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>128.57</v>
+        <v>92.30</v>
       </c>
       <c r="H2" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Punjab Kings</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J2" t="str">
-        <v>April 07, 2022</v>
+        <v>April 20, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
+        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Sarfaraz Khan</v>
       </c>
       <c r="C3" t="str">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D3" t="str">
+        <v>28</v>
+      </c>
+      <c r="E3" t="str">
         <v>3</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>33.33</v>
+        <v>128.57</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 22, 2022</v>
+        <v>April 07, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 15 runs</v>
+        <v>Super Giants won by 6 wickets (with 2 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Sarfaraz Khan</v>
       </c>
       <c r="C4" t="str">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="str">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
         <v>1</v>
       </c>
-      <c r="F4" t="str">
-        <v>0</v>
-      </c>
       <c r="G4" t="str">
-        <v>92.30</v>
+        <v>142.85</v>
       </c>
       <c r="H4" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J4" t="str">
-        <v>April 20, 2022</v>
+        <v>May 21, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Capitals won by 9 wickets (with 57 balls remaining)</v>
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Sarfaraz Khan</v>
       </c>
       <c r="C5" t="str">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>142.85</v>
+        <v>33.33</v>
       </c>
       <c r="H5" t="str">
-        <v>Mumbai Indians</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I5" t="str">
         <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>May 21, 2022</v>
+        <v>April 22, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+        <v>Royals won by 15 runs</v>
       </c>
     </row>
     <row r="6">
